--- a/MTProject/TestData/hotlistreissue.xlsx
+++ b/MTProject/TestData/hotlistreissue.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zameer.shaik\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zameer.shaik\Desktop\TestData-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF58150-84BB-4AF2-8FE3-91908CE236CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2892584A-BFBD-4A09-A350-49432E122DBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27000" windowHeight="4140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -139,15 +139,6 @@
     <t>Reference_CardNumber</t>
   </si>
   <si>
-    <t>N195114</t>
-  </si>
-  <si>
-    <t>N196361</t>
-  </si>
-  <si>
-    <t>N196424</t>
-  </si>
-  <si>
     <t>N197664</t>
   </si>
   <si>
@@ -157,10 +148,19 @@
     <t>N195486</t>
   </si>
   <si>
-    <t>N198346</t>
-  </si>
-  <si>
-    <t>N197701</t>
+    <t>N196383</t>
+  </si>
+  <si>
+    <t>N196425</t>
+  </si>
+  <si>
+    <t>N194433</t>
+  </si>
+  <si>
+    <t>N197285</t>
+  </si>
+  <si>
+    <t>N195711</t>
   </si>
 </sst>
 </file>
@@ -535,7 +535,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,8 +561,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>42</v>
+      <c r="A2" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="B2" t="s">
         <v>28</v>
@@ -571,12 +571,12 @@
         <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -590,21 +590,21 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>37</v>
+      <c r="A5" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B5" t="s">
         <v>31</v>
@@ -618,7 +618,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -646,7 +646,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -659,17 +659,17 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>41</v>
+      <c r="A9" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
